--- a/Datasheets/DataForm_UAS_BodyCondition_2023_UCSC.xlsx
+++ b/Datasheets/DataForm_UAS_BodyCondition_2023_UCSC.xlsx
@@ -935,6 +935,21 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -964,21 +979,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1355,7 +1355,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1687,20 +1687,20 @@
       <c r="C20" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="60" t="s">
+      <c r="D20" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="61"/>
-      <c r="F20" s="60" t="s">
+      <c r="E20" s="66"/>
+      <c r="F20" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="G20" s="61"/>
-      <c r="H20" s="57" t="s">
+      <c r="G20" s="66"/>
+      <c r="H20" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="59"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="64"/>
     </row>
     <row r="21" spans="1:11" s="25" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="54" t="s">
@@ -1714,16 +1714,16 @@
         <v>35</v>
       </c>
       <c r="E21" s="56"/>
-      <c r="F21" s="62" t="s">
+      <c r="F21" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="G21" s="63"/>
-      <c r="H21" s="64" t="s">
+      <c r="G21" s="68"/>
+      <c r="H21" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="I21" s="65"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="66"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="71"/>
     </row>
     <row r="22" spans="1:11" s="25" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="54" t="s">
@@ -1737,16 +1737,16 @@
         <v>35</v>
       </c>
       <c r="E22" s="56"/>
-      <c r="F22" s="67" t="s">
+      <c r="F22" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="G22" s="68"/>
-      <c r="H22" s="69" t="s">
+      <c r="G22" s="59"/>
+      <c r="H22" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="I22" s="69"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="69"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
     </row>
     <row r="23" spans="1:11" s="25" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="54" t="s">
@@ -1760,16 +1760,16 @@
         <v>35</v>
       </c>
       <c r="E23" s="56"/>
-      <c r="F23" s="67" t="s">
+      <c r="F23" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="G23" s="68"/>
-      <c r="H23" s="69" t="s">
+      <c r="G23" s="59"/>
+      <c r="H23" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="57"/>
     </row>
     <row r="24" spans="1:11" s="25" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="54" t="s">
@@ -1783,16 +1783,16 @@
         <v>35</v>
       </c>
       <c r="E24" s="56"/>
-      <c r="F24" s="67" t="s">
+      <c r="F24" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="G24" s="68"/>
-      <c r="H24" s="69" t="s">
+      <c r="G24" s="59"/>
+      <c r="H24" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
     </row>
     <row r="25" spans="1:11" s="25" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="54" t="s">
@@ -1806,16 +1806,16 @@
         <v>35</v>
       </c>
       <c r="E25" s="56"/>
-      <c r="F25" s="67" t="s">
+      <c r="F25" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="G25" s="68"/>
-      <c r="H25" s="69" t="s">
+      <c r="G25" s="59"/>
+      <c r="H25" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="57"/>
     </row>
     <row r="26" spans="1:11" s="25" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="54" t="s">
@@ -1829,16 +1829,16 @@
         <v>35</v>
       </c>
       <c r="E26" s="56"/>
-      <c r="F26" s="67" t="s">
+      <c r="F26" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="G26" s="68"/>
-      <c r="H26" s="69" t="s">
+      <c r="G26" s="59"/>
+      <c r="H26" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="69"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="57"/>
     </row>
     <row r="27" spans="1:11" s="25" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="54" t="s">
@@ -1852,16 +1852,16 @@
         <v>35</v>
       </c>
       <c r="E27" s="56"/>
-      <c r="F27" s="67" t="s">
+      <c r="F27" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="G27" s="68"/>
-      <c r="H27" s="69" t="s">
+      <c r="G27" s="59"/>
+      <c r="H27" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="I27" s="69"/>
-      <c r="J27" s="69"/>
-      <c r="K27" s="69"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="57"/>
     </row>
     <row r="28" spans="1:11" s="25" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="54" t="s">
@@ -1875,16 +1875,16 @@
         <v>35</v>
       </c>
       <c r="E28" s="56"/>
-      <c r="F28" s="70" t="s">
+      <c r="F28" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="G28" s="71"/>
-      <c r="H28" s="69" t="s">
+      <c r="G28" s="61"/>
+      <c r="H28" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="I28" s="69"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="69"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="57"/>
     </row>
     <row r="29" spans="1:11" s="25" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="54" t="s">
@@ -1898,36 +1898,19 @@
         <v>35</v>
       </c>
       <c r="E29" s="56"/>
-      <c r="F29" s="67" t="s">
+      <c r="F29" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="G29" s="68"/>
-      <c r="H29" s="69" t="s">
+      <c r="G29" s="59"/>
+      <c r="H29" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="I29" s="69"/>
-      <c r="J29" s="69"/>
-      <c r="K29" s="69"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="F26:G26"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="F20:G20"/>
@@ -1941,11 +1924,28 @@
     <mergeCell ref="H23:K23"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D23:E23"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.3125" top="0.60416666666666696" bottom="0.57291666666666696" header="0.33" footer="0.16"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter differentFirst="1">
-    <oddHeader xml:space="preserve">&amp;L&amp;"Arial,Bold"UAS Body Condition: 2022 Alaska Sea Life Center
+    <oddHeader xml:space="preserve">&amp;L&amp;"Arial,Bold"UAS Body Condition: 2023 UCSC LML
 &amp;CFlight #___     &amp;RPage ___ of ___   </oddHeader>
     <oddFooter>&amp;CIF FOUND, PLEASE RETURN TO: Alaska Fisheries Science Center, Marine Mammal Lab, 7600 Sand Point Way NE, Seattle, WA 98115, fax: 206-526-6615</oddFooter>
     <firstHeader>&amp;L*Target Identifier = &amp;"Arial,Bold"AnimalName&amp;"Arial,Regular" or &amp;"Arial,Bold"NA&amp;"Arial,Regular" (if there is no target)
